--- a/core/utils/cadenderecoCAMPINAS.xlsx
+++ b/core/utils/cadenderecoCAMPINAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB64E97-BD7A-40FE-93CB-B4DD1F74F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7F836-6AAE-42FB-97DA-3E27B4E4A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -315,346 +315,169 @@
     <t>23</t>
   </si>
   <si>
-    <t>3735-9085</t>
-  </si>
-  <si>
-    <t>3733-3583</t>
-  </si>
-  <si>
-    <t>3735-9015</t>
-  </si>
-  <si>
-    <t>3276-4680</t>
-  </si>
-  <si>
-    <t>3733-3553</t>
-  </si>
-  <si>
-    <t>3276-2070</t>
-  </si>
-  <si>
-    <t>3735-9140</t>
-  </si>
-  <si>
-    <t>3276-1103</t>
-  </si>
-  <si>
-    <t>3735-9172</t>
-  </si>
-  <si>
-    <t>3276-0177</t>
-  </si>
-  <si>
-    <t>3225-7154</t>
-  </si>
-  <si>
-    <t>3255-6096</t>
-  </si>
-  <si>
-    <t>3735-9066</t>
-  </si>
-  <si>
-    <t>3735-9068</t>
-  </si>
-  <si>
-    <t>3733-3515</t>
-  </si>
-  <si>
-    <t>3276-0664</t>
-  </si>
-  <si>
-    <t>3221-0263</t>
-  </si>
-  <si>
-    <t>3735-9072</t>
-  </si>
-  <si>
-    <t>3733-3561</t>
-  </si>
-  <si>
-    <t>3733-3511</t>
-  </si>
-  <si>
-    <t>3733-3530</t>
-  </si>
-  <si>
-    <t>3733-3532</t>
-  </si>
-  <si>
-    <t>3266-6965</t>
-  </si>
-  <si>
-    <t>3266-6962</t>
-  </si>
-  <si>
-    <t>3733-3525</t>
-  </si>
-  <si>
-    <t>3735-9032</t>
-  </si>
-  <si>
-    <t>3735-9018</t>
-  </si>
-  <si>
-    <t>3733-7617</t>
-  </si>
-  <si>
-    <t>13067-130</t>
-  </si>
-  <si>
-    <t>13082-255</t>
-  </si>
-  <si>
-    <t>13030-405</t>
-  </si>
-  <si>
-    <t>13042-010</t>
-  </si>
-  <si>
-    <t>13050-530</t>
-  </si>
-  <si>
-    <t>13044-420</t>
-  </si>
-  <si>
-    <t>13051-110</t>
-  </si>
-  <si>
-    <t>13045-025</t>
-  </si>
-  <si>
-    <t>13053-316</t>
-  </si>
-  <si>
-    <t>13045-750</t>
-  </si>
-  <si>
-    <t>13054-230</t>
-  </si>
-  <si>
-    <t>13096-490</t>
-  </si>
-  <si>
-    <t>13096-677</t>
-  </si>
-  <si>
-    <t>13101-018</t>
-  </si>
-  <si>
-    <t>13046-155</t>
-  </si>
-  <si>
-    <t>13046-160</t>
-  </si>
-  <si>
-    <t>13100-501</t>
-  </si>
-  <si>
-    <t>13091-134</t>
-  </si>
-  <si>
-    <t>13091-525</t>
-  </si>
-  <si>
-    <t>13107-234</t>
-  </si>
-  <si>
-    <t>13010-200</t>
-  </si>
-  <si>
-    <t>13054-141</t>
-  </si>
-  <si>
-    <t>13054-023</t>
-  </si>
-  <si>
-    <t>13056-430</t>
-  </si>
-  <si>
-    <t>13056-410</t>
-  </si>
-  <si>
-    <t>13052-410</t>
-  </si>
-  <si>
-    <t>13058-515</t>
-  </si>
-  <si>
-    <t>13060-830</t>
-  </si>
-  <si>
-    <t>s/nº</t>
-  </si>
-  <si>
-    <t>km 16</t>
-  </si>
-  <si>
-    <t>R REGINA ARAUJO LEONI</t>
-  </si>
-  <si>
-    <t>RUA ROBERTO BUENO TEIXEIRA</t>
-  </si>
-  <si>
-    <t>AV DAS AMOREIRAS</t>
-  </si>
-  <si>
-    <t>RUA LUIZ SILVÉRIO</t>
-  </si>
-  <si>
-    <t>R MARIA CECILIA TOZZI</t>
-  </si>
-  <si>
-    <t>R ITAGIBA (C/ RUA AJURICABA)</t>
-  </si>
-  <si>
-    <t>R ALTINO ARANTES</t>
-  </si>
-  <si>
-    <t>R FRANCISCO ANTONIO DA SILVA</t>
-  </si>
-  <si>
-    <t>R JUVENAL DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>R DA ABOLIÇÃO</t>
-  </si>
-  <si>
-    <t>ESTR VELHA DE INDAIATUBA</t>
-  </si>
-  <si>
-    <t>R SERRA D´ÁGUA</t>
-  </si>
-  <si>
-    <t>R PRAIA DO PEREQUE</t>
-  </si>
-  <si>
-    <t>R MANOEL MAROTTI CABRAL</t>
-  </si>
-  <si>
-    <t>RUA JULIO FERNANDES</t>
-  </si>
-  <si>
-    <t>R FLORIANO BUENO</t>
-  </si>
-  <si>
-    <t>R LUIZ ALBERTO WUSTEMBERG</t>
-  </si>
-  <si>
-    <t>RUA PROMISSAO</t>
-  </si>
-  <si>
-    <t>R LÚCIA HELENA ZAMPIERI</t>
-  </si>
-  <si>
-    <t>R PEDRO MAROSTICA</t>
-  </si>
-  <si>
-    <t>R BARRETO LEME</t>
-  </si>
-  <si>
-    <t>R ITAPURA</t>
-  </si>
-  <si>
-    <t>R IGACI</t>
-  </si>
-  <si>
-    <t>AVE COACIARA</t>
-  </si>
-  <si>
-    <t>R ANAJE</t>
-  </si>
-  <si>
-    <t>R ARMANDO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>R BENEDITO CANDIDO RAMOS</t>
-  </si>
-  <si>
-    <t>AV HOMERO VASCONCELOS DE S CAMARGO</t>
-  </si>
-  <si>
-    <t>PQ FAZENDINHA</t>
-  </si>
-  <si>
-    <t>JARDIM SÃO MARCOS</t>
-  </si>
-  <si>
-    <t>SÃO BERNARDO</t>
-  </si>
-  <si>
-    <t>VILA MARIETA</t>
-  </si>
-  <si>
-    <t>VL RICA</t>
-  </si>
-  <si>
-    <t>JD AMAZONAS</t>
-  </si>
-  <si>
-    <t>JD BANDEIRAS II</t>
-  </si>
-  <si>
-    <t>VL FORMOSA</t>
-  </si>
-  <si>
-    <t>JD SAO DOMINGOS</t>
-  </si>
-  <si>
-    <t>VILA JOAQUIM INÁCIO</t>
-  </si>
-  <si>
-    <t>JARDIM SÃO DOMINGOS</t>
-  </si>
-  <si>
-    <t>JD SAO FERNANDO</t>
-  </si>
-  <si>
-    <t>VL OROZIMBO MAIA</t>
-  </si>
-  <si>
-    <t>JD NEW YORK</t>
-  </si>
-  <si>
-    <t>JARDIM SAO PEDRO</t>
-  </si>
-  <si>
-    <t>JD SAO GABRIEL</t>
-  </si>
-  <si>
-    <t>JARDIM OURO BRANCO</t>
-  </si>
-  <si>
-    <t>JARDIM FLAMBOYANT</t>
-  </si>
-  <si>
-    <t>JARDIM BOA ESPERANÇA</t>
-  </si>
-  <si>
-    <t>NOVA SOUSAS</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>JD AEROPORTO</t>
-  </si>
-  <si>
-    <t>JD CRISTINA</t>
-  </si>
-  <si>
-    <t>PARQUE DOM PEDRO II</t>
-  </si>
-  <si>
-    <t>PQ DOM PEDRO II</t>
-  </si>
-  <si>
-    <t>JD MARIA ROSA</t>
-  </si>
-  <si>
-    <t>PQ VALENCA I</t>
-  </si>
-  <si>
-    <t>JD IPAUSSURAMA</t>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>E0141-EMEF/EJA PROFA DULCE BENTO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>E0142-EMEF/EJA EDSON LUÍS LIMA SOUTO</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>E0143-EMEFEI/EJA DR JOÃO ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>E0218-EMEF PROF VICENTE RAO</t>
+  </si>
+  <si>
+    <t>2991</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>E0216-EMEF PRES HUMBERTO DE ALENCAR CASTELO BRANCO</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>E0217-EMEFEI JULIO DE MESQUITA FILHO</t>
+  </si>
+  <si>
+    <t>2993</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>E0233-EMEF/EJA OZIEL ALVES PEREIRA</t>
+  </si>
+  <si>
+    <t>2994</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>E0355-EMEF/EJA MARIA PAVANATTI FAVARO</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>NAED NORTE</t>
+  </si>
+  <si>
+    <t>2996</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>NAED SUL</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>E0221-EMEF PROF BENEVENUTO DE FIGUEIREDO TORRES</t>
+  </si>
+  <si>
+    <t>2998</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>NAED LESTE</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>NAED SUDOESTE</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>E0354-EMEF PE EMILIO MIOTTI</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>E0359-EMEFEI/EJA PROF ZEFERINO VAZ</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>NAED NOROESTE</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>E0356-EMEF PE MELICO CÂNDIDO BARBOSA</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>E0410-EMEF/EJA PROFA CLOTILDE BARRAQUET VON ZUBEN</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>E0411-EMEF DR EDSON LUÍS CHAVES</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>E0412-EMEFEI PE FRANCISCO SILVA</t>
   </si>
 </sst>
 </file>
@@ -778,7 +601,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +767,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +845,12 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1348,9 +1183,9 @@
   <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1358,7 +1193,7 @@
     <col min="1" max="1" width="16.28515625" style="3"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
@@ -1443,24 +1278,12 @@
       <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="19">
-        <v>347</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="24" t="s">
         <v>16</v>
       </c>
@@ -1502,24 +1325,12 @@
       <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="24" t="s">
         <v>16</v>
       </c>
@@ -1561,24 +1372,12 @@
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1430</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
@@ -1620,24 +1419,12 @@
       <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="19">
-        <v>370</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
@@ -1679,24 +1466,12 @@
       <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="19">
-        <v>27</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="24" t="s">
         <v>16</v>
       </c>
@@ -1738,24 +1513,12 @@
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1797,24 +1560,12 @@
       <c r="D8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="19">
-        <v>210</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="24" t="s">
         <v>16</v>
       </c>
@@ -1856,24 +1607,12 @@
       <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="19">
-        <v>186</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
@@ -1915,24 +1654,12 @@
       <c r="D10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="24" t="s">
         <v>16</v>
       </c>
@@ -1974,24 +1701,12 @@
       <c r="D11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3282</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="24" t="s">
         <v>16</v>
       </c>
@@ -2033,24 +1748,12 @@
       <c r="D12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="24" t="s">
         <v>16</v>
       </c>
@@ -2092,24 +1795,12 @@
       <c r="D13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="19">
-        <v>35</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="24" t="s">
         <v>16</v>
       </c>
@@ -2151,24 +1842,12 @@
       <c r="D14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="19">
-        <v>100</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="24" t="s">
         <v>16</v>
       </c>
@@ -2210,24 +1889,12 @@
       <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>137</v>
-      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="24" t="s">
         <v>16</v>
       </c>
@@ -2269,24 +1936,12 @@
       <c r="D16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="19">
-        <v>40</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="24" t="s">
         <v>16</v>
       </c>
@@ -2328,24 +1983,12 @@
       <c r="D17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="19">
-        <v>26</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="24" t="s">
         <v>16</v>
       </c>
@@ -2387,24 +2030,12 @@
       <c r="D18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="19">
-        <v>49</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="24" t="s">
         <v>16</v>
       </c>
@@ -2446,24 +2077,12 @@
       <c r="D19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="19">
-        <v>230</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="24" t="s">
         <v>16</v>
       </c>
@@ -2505,24 +2124,12 @@
       <c r="D20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="19">
-        <v>340</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="24" t="s">
         <v>16</v>
       </c>
@@ -2564,24 +2171,12 @@
       <c r="D21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="19">
-        <v>177</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="24" t="s">
         <v>16</v>
       </c>
@@ -2623,24 +2218,12 @@
       <c r="D22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1375</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="24" t="s">
         <v>16</v>
       </c>
@@ -2682,24 +2265,12 @@
       <c r="D23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="19">
-        <v>446</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="24" t="s">
         <v>16</v>
       </c>
@@ -2741,24 +2312,12 @@
       <c r="D24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="19">
-        <v>80</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>146</v>
-      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="24" t="s">
         <v>16</v>
       </c>
@@ -2800,24 +2359,12 @@
       <c r="D25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="19">
-        <v>600</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="24" t="s">
         <v>16</v>
       </c>
@@ -2859,24 +2406,12 @@
       <c r="D26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="24" t="s">
         <v>16</v>
       </c>
@@ -2918,24 +2453,12 @@
       <c r="D27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="19">
-        <v>255</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="24" t="s">
         <v>16</v>
       </c>
@@ -2977,24 +2500,12 @@
       <c r="D28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="19">
-        <v>10</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="24" t="s">
         <v>16</v>
       </c>
@@ -3036,24 +2547,12 @@
       <c r="D29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="24" t="s">
         <v>16</v>
       </c>
@@ -3083,166 +2582,624 @@
       <c r="AE29" s="6"/>
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="8"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="8"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="8"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="8"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="8"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="8"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="8"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="8"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="8"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="8"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="8"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="8"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="8"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="8"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="8"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="8"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="8"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="17">
+        <v>44</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="17">
+        <v>45</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="17">
+        <v>46</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="17">
+        <v>47</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="17">
+        <v>48</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="8"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -3250,7 +3207,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="8"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -3258,7 +3215,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="8"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -3266,7 +3223,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="8"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -3274,7 +3231,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="8"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -3282,7 +3239,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="8"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -3290,7 +3247,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="8"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -3298,7 +3255,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="8"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -3306,7 +3263,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="8"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -3314,7 +3271,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="8"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -3322,7 +3279,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="8"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3330,7 +3287,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="8"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -3338,7 +3295,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="8"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3346,7 +3303,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="8"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3354,7 +3311,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="8"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>

--- a/core/utils/cadenderecoCAMPINAS.xlsx
+++ b/core/utils/cadenderecoCAMPINAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7F836-6AAE-42FB-97DA-3E27B4E4A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0963DB0-AEA6-4FE7-BF13-AC242F38C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -1183,9 +1183,9 @@
   <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2656,14 +2656,12 @@
       <c r="D32" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="24" t="s">
         <v>16</v>
       </c>

--- a/core/utils/cadenderecoCAMPINAS.xlsx
+++ b/core/utils/cadenderecoCAMPINAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0963DB0-AEA6-4FE7-BF13-AC242F38C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0F1D3-802C-4385-A9C9-5DEEB1466086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="150">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>PROJETO</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>CAMPINAS</t>
@@ -1183,9 +1180,9 @@
   <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1194,8 +1191,8 @@
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="75.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="3" customWidth="1"/>
@@ -1267,16 +1264,16 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="19"/>
@@ -1285,7 +1282,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="19"/>
       <c r="K2" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>2</v>
@@ -1314,16 +1311,16 @@
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
@@ -1332,7 +1329,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>2</v>
@@ -1361,16 +1358,16 @@
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="19"/>
@@ -1379,7 +1376,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="25" t="s">
         <v>2</v>
@@ -1408,16 +1405,16 @@
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="23"/>
@@ -1426,7 +1423,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>2</v>
@@ -1455,16 +1452,16 @@
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -1473,7 +1470,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="19"/>
       <c r="K6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>2</v>
@@ -1502,16 +1499,16 @@
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -1520,7 +1517,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="19"/>
       <c r="K7" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="25" t="s">
         <v>2</v>
@@ -1549,16 +1546,16 @@
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -1567,7 +1564,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="19"/>
       <c r="K8" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>2</v>
@@ -1596,16 +1593,16 @@
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -1614,7 +1611,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="19"/>
       <c r="K9" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="25" t="s">
         <v>2</v>
@@ -1643,16 +1640,16 @@
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -1661,7 +1658,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="25" t="s">
         <v>2</v>
@@ -1690,16 +1687,16 @@
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1708,7 +1705,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="19"/>
       <c r="K11" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="25" t="s">
         <v>2</v>
@@ -1737,16 +1734,16 @@
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -1755,7 +1752,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="19"/>
       <c r="K12" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>2</v>
@@ -1784,16 +1781,16 @@
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -1802,7 +1799,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="19"/>
       <c r="K13" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="25" t="s">
         <v>2</v>
@@ -1831,16 +1828,16 @@
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="19"/>
@@ -1849,7 +1846,7 @@
       <c r="I14" s="23"/>
       <c r="J14" s="19"/>
       <c r="K14" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="25" t="s">
         <v>2</v>
@@ -1878,16 +1875,16 @@
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -1896,7 +1893,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="19"/>
       <c r="K15" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>2</v>
@@ -1925,16 +1922,16 @@
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -1943,7 +1940,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="19"/>
       <c r="K16" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="25" t="s">
         <v>2</v>
@@ -1972,16 +1969,16 @@
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1990,7 +1987,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="19"/>
       <c r="K17" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="25" t="s">
         <v>2</v>
@@ -2019,16 +2016,16 @@
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2037,7 +2034,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="19"/>
       <c r="K18" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="25" t="s">
         <v>2</v>
@@ -2066,16 +2063,16 @@
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2084,7 +2081,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="19"/>
       <c r="K19" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>2</v>
@@ -2113,16 +2110,16 @@
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2131,7 +2128,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="19"/>
       <c r="K20" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>2</v>
@@ -2160,16 +2157,16 @@
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="23"/>
@@ -2178,7 +2175,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="19"/>
       <c r="K21" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>2</v>
@@ -2207,16 +2204,16 @@
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -2225,7 +2222,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="19"/>
       <c r="K22" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="25" t="s">
         <v>2</v>
@@ -2254,16 +2251,16 @@
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -2272,7 +2269,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="19"/>
       <c r="K23" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>2</v>
@@ -2301,16 +2298,16 @@
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -2319,7 +2316,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="19"/>
       <c r="K24" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>2</v>
@@ -2348,16 +2345,16 @@
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="17">
         <v>24</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -2366,7 +2363,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="19"/>
       <c r="K25" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="25" t="s">
         <v>2</v>
@@ -2395,16 +2392,16 @@
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="17">
         <v>25</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -2413,7 +2410,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>2</v>
@@ -2442,16 +2439,16 @@
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="17">
         <v>26</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2460,7 +2457,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="19"/>
       <c r="K27" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="25" t="s">
         <v>2</v>
@@ -2489,16 +2486,16 @@
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="17">
         <v>27</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -2507,7 +2504,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>2</v>
@@ -2536,16 +2533,16 @@
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="17">
         <v>28</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -2554,7 +2551,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="25" t="s">
         <v>2</v>
@@ -2583,27 +2580,25 @@
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="D30" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="25" t="s">
         <v>2</v>
@@ -2614,27 +2609,25 @@
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="D31" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
       <c r="K31" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="25" t="s">
         <v>2</v>
@@ -2645,16 +2638,16 @@
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="D32" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -2663,7 +2656,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="19"/>
       <c r="K32" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>2</v>
@@ -2674,27 +2667,25 @@
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="D33" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
       <c r="K33" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="25" t="s">
         <v>2</v>
@@ -2705,27 +2696,25 @@
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="D34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
       <c r="K34" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="25" t="s">
         <v>2</v>
@@ -2736,27 +2725,25 @@
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="D35" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="28"/>
       <c r="J35" s="29"/>
       <c r="K35" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>2</v>
@@ -2767,27 +2754,25 @@
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="D36" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>
       <c r="K36" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>2</v>
@@ -2798,27 +2783,25 @@
     </row>
     <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="D37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28"/>
       <c r="J37" s="29"/>
       <c r="K37" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="25" t="s">
         <v>2</v>
@@ -2829,27 +2812,25 @@
     </row>
     <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="D38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="28"/>
       <c r="J38" s="29"/>
       <c r="K38" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="25" t="s">
         <v>2</v>
@@ -2860,27 +2841,25 @@
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="D39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="28"/>
       <c r="J39" s="29"/>
       <c r="K39" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>2</v>
@@ -2891,27 +2870,25 @@
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="D40" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="28"/>
       <c r="J40" s="29"/>
       <c r="K40" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="25" t="s">
         <v>2</v>
@@ -2922,27 +2899,25 @@
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="D41" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="28"/>
       <c r="J41" s="29"/>
       <c r="K41" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L41" s="25" t="s">
         <v>2</v>
@@ -2953,27 +2928,25 @@
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="28"/>
       <c r="J42" s="29"/>
       <c r="K42" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L42" s="25" t="s">
         <v>2</v>
@@ -2984,27 +2957,25 @@
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="D43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="28"/>
       <c r="J43" s="29"/>
       <c r="K43" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43" s="25" t="s">
         <v>2</v>
@@ -3015,27 +2986,25 @@
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="D44" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="28"/>
       <c r="J44" s="29"/>
       <c r="K44" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L44" s="25" t="s">
         <v>2</v>
@@ -3046,27 +3015,25 @@
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="17">
         <v>44</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="28"/>
       <c r="J45" s="29"/>
       <c r="K45" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>2</v>
@@ -3077,27 +3044,25 @@
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="17">
         <v>45</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L46" s="25" t="s">
         <v>2</v>
@@ -3108,27 +3073,25 @@
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="17">
         <v>46</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29"/>
       <c r="K47" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>2</v>
@@ -3139,27 +3102,25 @@
     </row>
     <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="17">
         <v>47</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>2</v>
@@ -3170,16 +3131,16 @@
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="17">
         <v>48</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -3188,7 +3149,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>2</v>
